--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/42/word_level_predictions_42.xlsx
@@ -4506,104 +4506,104 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Taking</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="F204" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G204" s="2" t="b">
@@ -11041,11 +11041,11 @@
         </is>
       </c>
       <c r="I204" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K204" s="2" t="b">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="L204" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11093,11 +11093,11 @@
         </is>
       </c>
       <c r="I205" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K205" s="2" t="b">
@@ -11133,7 +11133,7 @@
       </c>
       <c r="F206" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G206" s="2" t="b">
@@ -11145,11 +11145,11 @@
         </is>
       </c>
       <c r="I206" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K206" s="2" t="b">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11185,7 +11185,7 @@
       </c>
       <c r="F207" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G207" s="2" t="b">
@@ -11197,11 +11197,11 @@
         </is>
       </c>
       <c r="I207" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K207" s="2" t="b">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="L207" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="F208" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G208" s="2" t="b">
@@ -11249,11 +11249,11 @@
         </is>
       </c>
       <c r="I208" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K208" s="2" t="b">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="L208" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11393,83 +11393,83 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>19</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Info:</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>2</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="inlineStr">
-        <is>
-          <t>Info:</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -12641,289 +12641,289 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>20</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B236" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem1/42/word_level_predictions_42.xlsx
@@ -4506,104 +4506,104 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>7</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Taking</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>3</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>7</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>4</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="F204" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G204" s="2" t="b">
@@ -11041,11 +11041,11 @@
         </is>
       </c>
       <c r="I204" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K204" s="2" t="b">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="L204" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11093,11 +11093,11 @@
         </is>
       </c>
       <c r="I205" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K205" s="2" t="b">
@@ -11133,7 +11133,7 @@
       </c>
       <c r="F206" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G206" s="2" t="b">
@@ -11145,11 +11145,11 @@
         </is>
       </c>
       <c r="I206" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K206" s="2" t="b">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11185,7 +11185,7 @@
       </c>
       <c r="F207" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G207" s="2" t="b">
@@ -11197,11 +11197,11 @@
         </is>
       </c>
       <c r="I207" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K207" s="2" t="b">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="L207" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="F208" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G208" s="2" t="b">
@@ -11249,11 +11249,11 @@
         </is>
       </c>
       <c r="I208" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K208" s="2" t="b">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="L208" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G211" t="b">
@@ -11417,59 +11417,59 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -12641,289 +12641,289 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
